--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,31 +40,34 @@
     <t>name</t>
   </si>
   <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
     <t>dangerous</t>
   </si>
   <si>
+    <t>scary</t>
+  </si>
+  <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>crazy</t>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>seriously</t>
   </si>
   <si>
     <t>shit</t>
@@ -79,19 +82,19 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>better</t>
-  </si>
-  <si>
-    <t>important</t>
   </si>
   <si>
     <t>good</t>
@@ -464,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -472,10 +475,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -533,13 +536,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9423076923076923</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -551,19 +554,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K3">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -575,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -583,13 +586,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9242424242424242</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C4">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -601,19 +604,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
       <c r="L4">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="M4">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -625,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -633,13 +636,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9230769230769231</v>
+        <v>0.9</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -651,19 +654,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K5">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -675,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -683,13 +686,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0.8942307692307693</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -701,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6">
         <v>0.6842105263157895</v>
@@ -733,13 +736,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8666666666666667</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -751,19 +754,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K7">
-        <v>0.6206896551724138</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="L7">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="M7">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -775,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -783,13 +786,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7894736842105263</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -801,19 +804,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K8">
-        <v>0.5333333333333333</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="L8">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M8">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -825,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -833,13 +836,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.65</v>
+        <v>0.5579710144927537</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -851,31 +854,31 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K9">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
       <c r="L9">
+        <v>39</v>
+      </c>
+      <c r="M9">
+        <v>39</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>36</v>
-      </c>
-      <c r="M9">
-        <v>36</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -883,13 +886,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.463768115942029</v>
+        <v>0.55</v>
       </c>
       <c r="C10">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -901,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K10">
-        <v>0.06830601092896176</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L10">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="M10">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -925,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1023</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -933,13 +936,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4571428571428571</v>
+        <v>0.5</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -951,10 +954,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K11">
         <v>0.04240282685512368</v>
@@ -983,13 +986,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3617021276595745</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1001,19 +1004,19 @@
         <v>0</v>
       </c>
       <c r="H12">
+        <v>15</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="K12">
-        <v>0.01807228915662651</v>
+        <v>0.02259036144578313</v>
       </c>
       <c r="L12">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M12">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1025,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1033,13 +1036,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3076923076923077</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1051,7 +1054,33 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>27</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
